--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_14.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>510132.259304798</v>
+        <v>506850.5914291599</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5573252.270349381</v>
+        <v>5573252.270349383</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,31 +735,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>37.18582309281555</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>230.8744955960827</v>
+      </c>
+      <c r="G5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>241.0142888776591</v>
@@ -917,7 +917,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>1.809496073036188</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -975,22 +975,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -1023,16 +1023,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>147.2379120664689</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="F8" t="n">
         <v>241.0142888776591</v>
@@ -1148,10 +1148,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1209,31 +1209,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>122.2716936111519</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>73.17098742451314</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>133.186967585368</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>124.9488863009592</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,22 +1415,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1464,13 +1464,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -1506,16 +1506,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>30.86155971440646</v>
       </c>
     </row>
     <row r="13">
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1667,10 +1667,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="X14" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -1743,7 +1743,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>35.74905915623028</v>
+        <v>190.0939048321462</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1765,16 +1765,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1859,13 +1859,13 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,31 +1886,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1926,22 +1926,22 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>63.16017003319293</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1968,19 +1968,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>35.00246782997241</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2056,10 +2056,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="V19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2123,16 +2123,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2141,10 +2141,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>241.0142888776591</v>
@@ -2160,19 +2160,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>110.7084015175195</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,22 +2205,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2327,61 +2327,61 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G23" t="n">
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>241.0142888776591</v>
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2445,22 +2445,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>135.4132168533397</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>131.8562746194806</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2473,67 +2473,67 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2561,67 +2561,67 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>49.31110394229523</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2643,13 +2643,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>12.37396784964466</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2773,10 +2773,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2792,22 +2792,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2846,16 +2846,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2871,22 +2871,22 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>111.1751113141406</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>73.7244075246944</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,13 +2919,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2934,10 +2934,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3004,10 +3004,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
-        <v>33.80371536444981</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3108,25 +3108,25 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>146.1932996118735</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>89.98138655216529</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3162,19 +3162,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3281,13 +3281,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3345,10 +3345,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3396,19 +3396,19 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>148.2190167648309</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,28 +3503,28 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3557,10 +3557,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3627,25 +3627,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>142.8009741436499</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>65.13060206523731</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3712,13 +3712,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3749,64 +3749,64 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G41" t="n">
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J41" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>21.85442600983729</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3819,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3870,16 +3870,16 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>150.9993436124999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3983,13 +3983,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4019,25 +4019,25 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4071,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4119,7 +4119,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C2" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>964.0571555106362</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>726.4525409563269</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4446,13 +4446,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>926.4957180431458</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4507,31 +4507,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C5" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D5" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E5" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F5" t="n">
-        <v>477.1596022224361</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G5" t="n">
-        <v>477.1596022224361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H5" t="n">
-        <v>233.7108255783361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>21.10891692136039</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4598,19 +4598,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>862.8876260635219</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
         <v>110.334904905842</v>
@@ -4650,19 +4650,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4671,25 +4671,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>110.334904905842</v>
       </c>
       <c r="W6" t="n">
-        <v>862.8876260635219</v>
+        <v>110.334904905842</v>
       </c>
       <c r="X6" t="n">
-        <v>862.8876260635219</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y6" t="n">
-        <v>862.8876260635219</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="7">
@@ -4750,10 +4750,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
         <v>19.28114311021272</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C8" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D8" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E8" t="n">
-        <v>720.6083788665362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F8" t="n">
-        <v>477.1596022224361</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G8" t="n">
-        <v>233.7108255783361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>317.2409336147255</v>
+        <v>582.8795121963512</v>
       </c>
       <c r="C9" t="n">
-        <v>142.7879043335984</v>
+        <v>582.8795121963512</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>582.8795121963512</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,7 +4887,7 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M9" t="n">
         <v>304.2053859195205</v>
@@ -4908,25 +4908,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V9" t="n">
-        <v>728.9050472788936</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W9" t="n">
-        <v>485.4562706347935</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X9" t="n">
-        <v>485.4562706347935</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y9" t="n">
-        <v>485.4562706347935</v>
+        <v>582.8795121963512</v>
       </c>
     </row>
     <row r="10">
@@ -4957,7 +4957,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J10" t="n">
         <v>19.28114311021272</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
@@ -5063,28 +5063,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S11" t="n">
-        <v>752.9257720901863</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T11" t="n">
-        <v>527.5764290961142</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U11" t="n">
-        <v>284.1276524520142</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V11" t="n">
-        <v>40.6788758079141</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W11" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X11" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>55.04605772994853</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C12" t="n">
-        <v>55.04605772994853</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D12" t="n">
-        <v>55.04605772994853</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E12" t="n">
-        <v>55.04605772994853</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F12" t="n">
-        <v>55.04605772994853</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G12" t="n">
-        <v>55.04605772994853</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5124,13 +5124,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>383.2428491569326</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N12" t="n">
-        <v>621.8469951458151</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
         <v>712.019119383956</v>
@@ -5142,28 +5142,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T12" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U12" t="n">
-        <v>533.6469426057913</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V12" t="n">
-        <v>298.4948343740486</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W12" t="n">
-        <v>55.04605772994853</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X12" t="n">
-        <v>55.04605772994853</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="Y12" t="n">
-        <v>55.04605772994853</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="13">
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
         <v>19.28114311021272</v>
@@ -5218,31 +5218,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5315,7 +5315,7 @@
         <v>40.6788758079141</v>
       </c>
       <c r="W14" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X14" t="n">
         <v>19.28114311021272</v>
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>222.9499078454769</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C15" t="n">
-        <v>222.9499078454769</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D15" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
         <v>19.28114311021272</v>
@@ -5358,19 +5358,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>383.2428491569326</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
         <v>964.0571555106362</v>
@@ -5379,28 +5379,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T15" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U15" t="n">
-        <v>259.0600686093459</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V15" t="n">
-        <v>222.9499078454769</v>
+        <v>168.215552771464</v>
       </c>
       <c r="W15" t="n">
-        <v>222.9499078454769</v>
+        <v>168.215552771464</v>
       </c>
       <c r="X15" t="n">
-        <v>222.9499078454769</v>
+        <v>168.215552771464</v>
       </c>
       <c r="Y15" t="n">
-        <v>222.9499078454769</v>
+        <v>168.215552771464</v>
       </c>
     </row>
     <row r="16">
@@ -5413,13 +5413,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
         <v>19.28114311021272</v>
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C17" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D17" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E17" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F17" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G17" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V17" t="n">
-        <v>477.1596022224361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W17" t="n">
-        <v>233.7108255783361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X17" t="n">
-        <v>233.7108255783361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y17" t="n">
-        <v>233.7108255783361</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>790.6398109613051</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C18" t="n">
-        <v>790.6398109613051</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D18" t="n">
-        <v>641.7054013000538</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E18" t="n">
-        <v>482.4679462945983</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F18" t="n">
-        <v>335.9333883214833</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G18" t="n">
-        <v>197.2025629040988</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>83.83342731167816</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5598,46 +5598,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>621.8469951458151</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O18" t="n">
-        <v>860.4511411346975</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>790.6398109613051</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>790.6398109613051</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="W18" t="n">
-        <v>790.6398109613051</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="X18" t="n">
-        <v>790.6398109613051</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="Y18" t="n">
-        <v>790.6398109613051</v>
+        <v>223.7040404982626</v>
       </c>
     </row>
     <row r="19">
@@ -5692,19 +5692,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
         <v>19.28114311021272</v>
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="C20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>802.5825927271064</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U20" t="n">
-        <v>802.5825927271064</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V20" t="n">
-        <v>802.5825927271064</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>49.38115216564972</v>
+        <v>452.8495312167552</v>
       </c>
       <c r="C21" t="n">
-        <v>49.38115216564972</v>
+        <v>278.3965019356282</v>
       </c>
       <c r="D21" t="n">
-        <v>49.38115216564972</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E21" t="n">
-        <v>49.38115216564972</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F21" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>304.2053859195205</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U21" t="n">
-        <v>735.8335372470253</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V21" t="n">
-        <v>500.6814290152826</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W21" t="n">
-        <v>257.2326523711826</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X21" t="n">
-        <v>49.38115216564972</v>
+        <v>452.8495312167552</v>
       </c>
       <c r="Y21" t="n">
-        <v>49.38115216564972</v>
+        <v>452.8495312167552</v>
       </c>
     </row>
     <row r="22">
@@ -5944,13 +5944,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
         <v>19.28114311021272</v>
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="J23" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6023,16 +6023,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6042,10 +6042,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D24" t="n">
         <v>19.28114311021272</v>
@@ -6075,16 +6075,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N24" t="n">
-        <v>726.4525409563269</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6093,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>360.2295980564601</v>
+        <v>827.2761283860507</v>
       </c>
       <c r="V24" t="n">
-        <v>360.2295980564601</v>
+        <v>827.2761283860507</v>
       </c>
       <c r="W24" t="n">
-        <v>227.0414418751666</v>
+        <v>583.8273517419507</v>
       </c>
       <c r="X24" t="n">
-        <v>227.0414418751666</v>
+        <v>375.9758515364179</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>168.215552771464</v>
       </c>
     </row>
     <row r="25">
@@ -6181,16 +6181,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y26" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>69.84447166430675</v>
+        <v>284.6341941966871</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299844</v>
+        <v>284.6341941966871</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>284.6341941966871</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>284.6341941966871</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H27" t="n">
         <v>20.03527576299844</v>
@@ -6306,19 +6306,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V27" t="n">
-        <v>728.9050472788936</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W27" t="n">
-        <v>485.4562706347935</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X27" t="n">
-        <v>277.6047704292607</v>
+        <v>452.8495312167552</v>
       </c>
       <c r="Y27" t="n">
-        <v>69.84447166430675</v>
+        <v>452.8495312167552</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>467.067986854209</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
         <v>262.7299197543128</v>
@@ -6452,7 +6452,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6494,19 +6494,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V29" t="n">
-        <v>467.067986854209</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W29" t="n">
-        <v>467.067986854209</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X29" t="n">
-        <v>467.067986854209</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y29" t="n">
-        <v>467.067986854209</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>492.3847606029253</v>
+        <v>131.5792353467183</v>
       </c>
       <c r="C30" t="n">
-        <v>492.3847606029253</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>492.3847606029253</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6549,13 +6549,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
+        <v>374.6018090363993</v>
+      </c>
+      <c r="N30" t="n">
         <v>613.2059550252818</v>
       </c>
-      <c r="N30" t="n">
-        <v>725.4530095217538</v>
-      </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V30" t="n">
-        <v>735.8335372470253</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W30" t="n">
-        <v>492.3847606029253</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X30" t="n">
-        <v>492.3847606029253</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="Y30" t="n">
-        <v>492.3847606029253</v>
+        <v>131.5792353467183</v>
       </c>
     </row>
     <row r="31">
@@ -6652,7 +6652,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
         <v>19.28114311021272</v>
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6725,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>509.4769954460863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>266.0282188019862</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W32" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>284.6244618379714</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C33" t="n">
-        <v>110.1714325568443</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D33" t="n">
-        <v>110.1714325568443</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E33" t="n">
-        <v>110.1714325568443</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F33" t="n">
-        <v>110.1714325568443</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G33" t="n">
-        <v>110.1714325568443</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6780,19 +6780,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6810,19 +6810,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W33" t="n">
-        <v>492.3847606029253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X33" t="n">
-        <v>492.3847606029253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y33" t="n">
-        <v>284.6244618379714</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E35" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X35" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="36">
@@ -6990,10 +6990,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D36" t="n">
         <v>19.28114311021272</v>
@@ -7023,16 +7023,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N36" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7044,22 +7044,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>705.7335281915883</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>470.5814199598456</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W36" t="n">
-        <v>227.1326433157456</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X36" t="n">
-        <v>19.28114311021272</v>
+        <v>342.668582052591</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>342.668582052591</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>802.5825927271064</v>
+      </c>
+      <c r="C38" t="n">
+        <v>559.1338160830064</v>
+      </c>
+      <c r="D38" t="n">
+        <v>559.1338160830064</v>
+      </c>
+      <c r="E38" t="n">
         <v>315.6850394389064</v>
       </c>
-      <c r="C38" t="n">
-        <v>315.6850394389064</v>
-      </c>
-      <c r="D38" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E38" t="n">
-        <v>262.7299197543128</v>
-      </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7205,19 +7205,19 @@
         <v>802.5825927271064</v>
       </c>
       <c r="U38" t="n">
-        <v>559.1338160830064</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V38" t="n">
-        <v>315.6850394389064</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W38" t="n">
-        <v>315.6850394389064</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X38" t="n">
-        <v>315.6850394389064</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y38" t="n">
-        <v>315.6850394389064</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="39">
@@ -7227,10 +7227,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D39" t="n">
         <v>19.28114311021272</v>
@@ -7257,46 +7257,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="W39" t="n">
-        <v>434.8929420806995</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="X39" t="n">
-        <v>227.0414418751666</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C41" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7436,25 +7436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U41" t="n">
-        <v>730.8505943024719</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V41" t="n">
-        <v>730.8505943024719</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W41" t="n">
-        <v>730.8505943024719</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X41" t="n">
-        <v>730.8505943024719</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y41" t="n">
-        <v>730.8505943024719</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7464,7 +7464,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>193.7341723913397</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C42" t="n">
         <v>19.28114311021272</v>
@@ -7518,22 +7518,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>761.8705608694022</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W42" t="n">
-        <v>609.3459713618265</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X42" t="n">
-        <v>401.4944711562937</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y42" t="n">
-        <v>193.7341723913397</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="43">
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
         <v>19.28114311021272</v>
@@ -7594,25 +7594,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7667,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>333.7844730889342</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V44" t="n">
-        <v>90.33569644483418</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W44" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X44" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y44" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
         <v>19.28114311021272</v>
@@ -7728,7 +7728,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
         <v>178.8501590306595</v>
@@ -7752,25 +7752,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U45" t="n">
-        <v>735.8335372470253</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V45" t="n">
-        <v>500.6814290152826</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W45" t="n">
-        <v>257.2326523711826</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X45" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y45" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I46" t="n">
         <v>19.28114311021272</v>
@@ -7843,13 +7843,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8070,10 +8070,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>198.1125443848066</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8298,22 +8298,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,7 +8453,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8535,10 +8535,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M9" t="n">
-        <v>303.312501347746</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8772,16 +8772,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>233.6791982203443</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9006,22 +9006,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N15" t="n">
-        <v>292.5201795090609</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9246,7 +9246,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
@@ -9255,13 +9255,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P18" t="n">
-        <v>238.6269471880057</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,16 +9480,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>299.7328472056018</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,19 +9723,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,22 +9954,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10197,16 +10197,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10428,22 +10428,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10671,19 +10671,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O36" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10905,22 +10905,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11376,10 +11376,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>173.111405903722</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996774</v>
@@ -22544,19 +22544,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
@@ -22589,7 +22589,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22601,7 +22601,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>49.05096647893927</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22613,7 +22613,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,31 +22623,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22686,13 +22686,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>214.5091600681041</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,10 +22747,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22784,7 +22784,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22793,10 +22793,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>98.46051323810809</v>
@@ -22805,7 +22805,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>10.13979328157633</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22838,7 +22838,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22863,22 +22863,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -22911,16 +22911,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>85.56267508295639</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -22990,13 +22990,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23018,7 +23018,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23027,7 +23027,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F8" t="n">
         <v>165.8617568640524</v>
@@ -23036,10 +23036,10 @@
         <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>127.189416472325</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23097,31 +23097,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>25.17337195348689</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>84.4740930308878</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23148,7 +23148,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -23157,16 +23157,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23197,10 +23197,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>22.26350734189026</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -23270,13 +23270,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>290.3538512141759</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23303,22 +23303,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>328.0572133466886</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23352,13 +23352,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>76.82817876295802</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,10 +23382,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23394,16 +23394,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>174.8211360628979</v>
       </c>
     </row>
     <row r="13">
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23458,10 +23458,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23555,10 +23555,10 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>328.0572133466886</v>
       </c>
       <c r="X14" t="n">
-        <v>348.5473453077446</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23577,7 +23577,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23589,10 +23589,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23619,7 +23619,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23631,7 +23631,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>197.051527993195</v>
+        <v>42.7066823172791</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23653,7 +23653,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G16" t="n">
         <v>167.9909793584588</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>292.3449039254042</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23747,13 +23747,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,31 +23774,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23814,22 +23814,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.23646281822215</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,19 +23856,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>197.7981193194529</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23932,7 +23932,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
@@ -23944,10 +23944,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>239.2941050228172</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23969,7 +23969,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>135.0690668140378</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -24011,16 +24011,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24029,10 +24029,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>296.8154002296655</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>145.2236497783945</v>
@@ -24048,19 +24048,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>36.73666404711921</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>107.544508198328</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24069,7 +24069,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,22 +24093,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24215,10 +24215,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24263,13 +24263,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>145.2236497783945</v>
@@ -24288,7 +24288,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24333,22 +24333,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>90.52816522763516</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>119.838708541439</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24421,7 +24421,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24449,13 +24449,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>179.6356836433646</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24485,7 +24485,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24497,7 +24497,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24506,10 +24506,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24519,10 +24519,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>123.3973950460205</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24531,13 +24531,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>132.6952445437392</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24567,28 +24567,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24661,10 +24661,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24680,22 +24680,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24734,16 +24734,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24759,22 +24759,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>61.53338767417517</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>83.92067293070654</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24807,13 +24807,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24822,10 +24822,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24892,10 +24892,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24917,7 +24917,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24935,7 +24935,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24965,22 +24965,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V32" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>315.4372533529632</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24996,25 +24996,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>26.51519937644221</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>22.25405768433117</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25050,19 +25050,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25075,7 +25075,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25129,7 +25129,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25169,13 +25169,13 @@
         <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>149.1294050414824</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25205,7 +25205,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25233,10 +25233,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25284,19 +25284,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>170.3657197299391</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>57.55396843864654</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25318,7 +25318,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25372,7 +25372,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25391,28 +25391,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>302.2574731329353</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>374.8264583819999</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25445,10 +25445,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25467,13 +25467,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25515,25 +25515,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>28.88219696018794</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>186.5643810956823</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25600,13 +25600,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25637,19 +25637,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25676,13 +25676,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U41" t="n">
-        <v>229.4912268979992</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25694,7 +25694,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25707,7 +25707,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>122.6508037197626</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25758,16 +25758,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>100.6956395484197</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25834,7 +25834,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25871,13 +25871,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25907,25 +25907,25 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V44" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>278.8969609161378</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25959,7 +25959,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>82.43643527161383</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25992,7 +25992,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26007,7 +26007,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>141.8841621389552</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26041,7 +26041,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J46" t="n">
         <v>93.35918011667277</v>
@@ -26083,7 +26083,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>481985.0402310078</v>
+        <v>481985.0402310081</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>481985.0402310078</v>
+        <v>481985.040231008</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>481985.0402310077</v>
+        <v>481985.040231008</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>481985.0402310078</v>
+        <v>481985.0402310077</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>481985.0402310078</v>
+        <v>481985.0402310079</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>481985.0402310077</v>
+        <v>481985.040231008</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>481985.0402310078</v>
+        <v>481985.040231008</v>
       </c>
     </row>
     <row r="15">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="C4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="D4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="E4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="F4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="G4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="P4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29260.68891881197</v>
+        <v>-29652.91916435758</v>
       </c>
       <c r="C6" t="n">
-        <v>51508.74261273575</v>
+        <v>51116.51236719017</v>
       </c>
       <c r="D6" t="n">
-        <v>51508.74261273572</v>
+        <v>51116.5123671902</v>
       </c>
       <c r="E6" t="n">
-        <v>85136.34261273572</v>
+        <v>84744.1123671902</v>
       </c>
       <c r="F6" t="n">
-        <v>85136.34261273577</v>
+        <v>84744.11236719019</v>
       </c>
       <c r="G6" t="n">
-        <v>85136.34261273572</v>
+        <v>84744.11236719022</v>
       </c>
       <c r="H6" t="n">
-        <v>85136.34261273574</v>
+        <v>84744.11236719019</v>
       </c>
       <c r="I6" t="n">
-        <v>85136.34261273572</v>
+        <v>84744.1123671902</v>
       </c>
       <c r="J6" t="n">
-        <v>22076.4000136295</v>
+        <v>21684.16976808394</v>
       </c>
       <c r="K6" t="n">
-        <v>85136.34261273574</v>
+        <v>84744.11236719017</v>
       </c>
       <c r="L6" t="n">
-        <v>85136.34261273572</v>
+        <v>84744.11236719016</v>
       </c>
       <c r="M6" t="n">
-        <v>85136.34261273572</v>
+        <v>84744.11236719017</v>
       </c>
       <c r="N6" t="n">
-        <v>85136.34261273572</v>
+        <v>84744.11236719017</v>
       </c>
       <c r="O6" t="n">
-        <v>85136.34261273569</v>
+        <v>84744.11236719014</v>
       </c>
       <c r="P6" t="n">
-        <v>85136.34261273572</v>
+        <v>84744.11236719016</v>
       </c>
     </row>
   </sheetData>
@@ -34711,7 +34711,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
@@ -34790,10 +34790,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>55.51629994036219</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34942,10 +34942,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35018,22 +35018,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,10 +35255,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M9" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35492,16 +35492,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N12" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O12" t="n">
-        <v>91.0829537758999</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N15" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N15" t="n">
-        <v>161.1784674257276</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35966,7 +35966,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
@@ -35975,13 +35975,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P18" t="n">
-        <v>104.6525397736754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36218,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,19 +36443,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36917,16 +36917,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N30" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37391,19 +37391,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N36" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O36" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,22 +37625,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -38023,7 +38023,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
         <v>207.9338608153932</v>
@@ -38096,10 +38096,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>34.55702612384782</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M45" t="n">
         <v>241.0142888776591</v>
